--- a/simulation_data/iterative_algorithm/i_error_level_15_percent_water_60.xlsx
+++ b/simulation_data/iterative_algorithm/i_error_level_15_percent_water_60.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.25020075887079</v>
+        <v>91.15491860475856</v>
       </c>
       <c r="D2" t="n">
-        <v>21.46091105098617</v>
+        <v>20.1772593639499</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>84.15703301404645</v>
+        <v>93.725716333251</v>
       </c>
       <c r="D3" t="n">
-        <v>22.30737885980693</v>
+        <v>19.74307626602759</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>85.06737310689323</v>
+        <v>85.35542541926165</v>
       </c>
       <c r="D4" t="n">
-        <v>19.08714234205316</v>
+        <v>19.99834109542189</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>90.12013447608737</v>
+        <v>84.89080766891449</v>
       </c>
       <c r="D5" t="n">
-        <v>21.42343519702201</v>
+        <v>22.87698455446294</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.67890471499219</v>
+        <v>85.48095665111163</v>
       </c>
       <c r="D6" t="n">
-        <v>20.75484185374271</v>
+        <v>21.82950422818298</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.9367737991532</v>
+        <v>85.95998603153365</v>
       </c>
       <c r="D7" t="n">
-        <v>22.30519414942442</v>
+        <v>20.88952526541642</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>82.72257990731764</v>
+        <v>85.62404100722313</v>
       </c>
       <c r="D8" t="n">
-        <v>23.40960248369615</v>
+        <v>23.04936074861892</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>81.86785766833127</v>
+        <v>83.54131643242215</v>
       </c>
       <c r="D9" t="n">
-        <v>24.28853725392823</v>
+        <v>19.00904098237489</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.54328886904706</v>
+        <v>80.58506821948644</v>
       </c>
       <c r="D10" t="n">
-        <v>23.25301388441845</v>
+        <v>24.40473551790595</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>79.21924170529596</v>
+        <v>81.56136126314613</v>
       </c>
       <c r="D11" t="n">
-        <v>21.45695097363762</v>
+        <v>20.14331051167347</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.82788820123083</v>
+        <v>81.83541984628094</v>
       </c>
       <c r="D12" t="n">
-        <v>23.76040928611332</v>
+        <v>19.1424346056155</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.1462180800991</v>
+        <v>81.12947088362722</v>
       </c>
       <c r="D13" t="n">
-        <v>22.98168390892705</v>
+        <v>19.15567849049845</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.67023948054563</v>
+        <v>81.59523317541115</v>
       </c>
       <c r="D14" t="n">
-        <v>23.46408041719019</v>
+        <v>20.26887752913529</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>74.68137785382547</v>
+        <v>78.66554247108731</v>
       </c>
       <c r="D15" t="n">
-        <v>20.89790777836154</v>
+        <v>19.70614231859082</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>77.4972806348046</v>
+        <v>75.37704858035164</v>
       </c>
       <c r="D16" t="n">
-        <v>22.27438848937087</v>
+        <v>20.77349976638689</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>76.76648054447995</v>
+        <v>76.11843281196087</v>
       </c>
       <c r="D17" t="n">
-        <v>21.43000021568191</v>
+        <v>20.1121935282868</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>68.92120211933478</v>
+        <v>75.54874261465481</v>
       </c>
       <c r="D18" t="n">
-        <v>20.91184260501424</v>
+        <v>19.37750393347017</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>74.14082546735048</v>
+        <v>70.56692953033979</v>
       </c>
       <c r="D19" t="n">
-        <v>20.02394618464287</v>
+        <v>22.99097997191236</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>69.67523576028672</v>
+        <v>70.10656136688993</v>
       </c>
       <c r="D20" t="n">
-        <v>23.1036729478863</v>
+        <v>22.44336227326532</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>72.98936453384165</v>
+        <v>69.21586115061049</v>
       </c>
       <c r="D21" t="n">
-        <v>23.618018274641</v>
+        <v>18.85008872849586</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.68927866645411</v>
+        <v>68.05446887135084</v>
       </c>
       <c r="D22" t="n">
-        <v>22.6537925399246</v>
+        <v>21.97286183855315</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.7869037404139</v>
+        <v>68.81392499280305</v>
       </c>
       <c r="D23" t="n">
-        <v>21.49162005518393</v>
+        <v>21.20763744922755</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>74.67944659677102</v>
+        <v>70.96167036463464</v>
       </c>
       <c r="D24" t="n">
-        <v>21.55993084068032</v>
+        <v>19.83147896873059</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>68.65519784615719</v>
+        <v>69.1044468814368</v>
       </c>
       <c r="D25" t="n">
-        <v>22.96349936048678</v>
+        <v>21.2399865542817</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>64.38102113599777</v>
+        <v>67.766767335338</v>
       </c>
       <c r="D26" t="n">
-        <v>21.92877540613701</v>
+        <v>20.95658296957081</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>65.45004884678538</v>
+        <v>70.00644329217067</v>
       </c>
       <c r="D27" t="n">
-        <v>21.63273622126938</v>
+        <v>23.42649563543554</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>65.58127611880522</v>
+        <v>62.24452018234593</v>
       </c>
       <c r="D28" t="n">
-        <v>21.02596566696965</v>
+        <v>21.01347852180344</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.92000859017323</v>
+        <v>61.79631573392992</v>
       </c>
       <c r="D29" t="n">
-        <v>23.67842341733737</v>
+        <v>21.26341497058758</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.22775969280678</v>
+        <v>58.05749280642836</v>
       </c>
       <c r="D30" t="n">
-        <v>20.32679957927979</v>
+        <v>18.6262694295788</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>64.31261819777113</v>
+        <v>60.77158487221501</v>
       </c>
       <c r="D31" t="n">
-        <v>22.19397632271358</v>
+        <v>22.97999381746797</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>61.47327925688611</v>
+        <v>58.82591242136188</v>
       </c>
       <c r="D32" t="n">
-        <v>20.44078461199633</v>
+        <v>23.67618593095471</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.85287170387183</v>
+        <v>58.18847033689574</v>
       </c>
       <c r="D33" t="n">
-        <v>23.04429007306126</v>
+        <v>22.99722859863985</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.06949826937933</v>
+        <v>56.88961160515996</v>
       </c>
       <c r="D34" t="n">
-        <v>21.75267308766299</v>
+        <v>21.85438076617133</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>52.14152073850555</v>
+        <v>53.92860502853615</v>
       </c>
       <c r="D35" t="n">
-        <v>24.2408467914795</v>
+        <v>24.60853718867455</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.39965667461887</v>
+        <v>54.79447359523755</v>
       </c>
       <c r="D36" t="n">
-        <v>24.25704876028659</v>
+        <v>20.95513285235194</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>51.47579404610275</v>
+        <v>52.60064296634757</v>
       </c>
       <c r="D37" t="n">
-        <v>21.94679600294167</v>
+        <v>22.6785686974263</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.67520148507408</v>
+        <v>52.17966713815356</v>
       </c>
       <c r="D38" t="n">
-        <v>19.20038890744848</v>
+        <v>22.38898132164736</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>49.14072768258513</v>
+        <v>51.12946400238149</v>
       </c>
       <c r="D39" t="n">
-        <v>19.59888506417647</v>
+        <v>23.14983217828047</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.38795175256445</v>
+        <v>50.08363930024618</v>
       </c>
       <c r="D40" t="n">
-        <v>24.95027122035187</v>
+        <v>22.14734554487237</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.88952211267985</v>
+        <v>50.96714438296852</v>
       </c>
       <c r="D41" t="n">
-        <v>21.76373957594769</v>
+        <v>22.69541212217081</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>47.51933740010701</v>
+        <v>46.26735499651817</v>
       </c>
       <c r="D42" t="n">
-        <v>21.18546433965757</v>
+        <v>22.2751091063387</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.58746037396632</v>
+        <v>46.90594899251823</v>
       </c>
       <c r="D43" t="n">
-        <v>23.23368432284873</v>
+        <v>22.92311874937874</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.21752505875822</v>
+        <v>52.68913115301948</v>
       </c>
       <c r="D44" t="n">
-        <v>24.12909482220133</v>
+        <v>21.63189023551766</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>49.01115784730808</v>
+        <v>46.42651247158963</v>
       </c>
       <c r="D45" t="n">
-        <v>21.19603524944953</v>
+        <v>22.98361924470841</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>44.62497533358425</v>
+        <v>48.05140377447881</v>
       </c>
       <c r="D46" t="n">
-        <v>23.76481270034383</v>
+        <v>24.97168885155786</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>47.55272271861954</v>
+        <v>44.88927412794839</v>
       </c>
       <c r="D47" t="n">
-        <v>23.81888518567483</v>
+        <v>20.94444864288515</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.09276499614661</v>
+        <v>43.45487368219737</v>
       </c>
       <c r="D48" t="n">
-        <v>21.84493620939278</v>
+        <v>20.25622244612563</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>44.07753970146368</v>
+        <v>45.14872795372649</v>
       </c>
       <c r="D49" t="n">
-        <v>22.60763294942893</v>
+        <v>21.01108411095539</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>43.28084538706487</v>
+        <v>45.0843856633902</v>
       </c>
       <c r="D50" t="n">
-        <v>21.42095322660301</v>
+        <v>19.11717659117534</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>37.73821252257384</v>
+        <v>44.46463509697236</v>
       </c>
       <c r="D51" t="n">
-        <v>23.19215253326561</v>
+        <v>23.57644121317824</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>36.30166858834541</v>
+        <v>38.27470752684847</v>
       </c>
       <c r="D52" t="n">
-        <v>23.56560312161834</v>
+        <v>20.44788058548998</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>32.86010031721077</v>
+        <v>36.88909975346179</v>
       </c>
       <c r="D53" t="n">
-        <v>25.07593796186852</v>
+        <v>22.40329352197158</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>35.27036016735298</v>
+        <v>31.93958376545092</v>
       </c>
       <c r="D54" t="n">
-        <v>21.24371685158565</v>
+        <v>23.36820696813485</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>38.79921118587665</v>
+        <v>38.82419553675302</v>
       </c>
       <c r="D55" t="n">
-        <v>23.56047382137437</v>
+        <v>22.31310153794363</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.08981078199812</v>
+        <v>34.31585174936461</v>
       </c>
       <c r="D56" t="n">
-        <v>23.65637366513184</v>
+        <v>19.65322219896284</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>31.2941350349394</v>
+        <v>33.9581367295944</v>
       </c>
       <c r="D57" t="n">
-        <v>23.5883304323269</v>
+        <v>24.84760995136401</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>31.9544957586113</v>
+        <v>28.37526681730302</v>
       </c>
       <c r="D58" t="n">
-        <v>26.59220678545065</v>
+        <v>19.27752631414434</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.12748399026047</v>
+        <v>33.9380796517212</v>
       </c>
       <c r="D59" t="n">
-        <v>22.83140159521475</v>
+        <v>25.11454623991053</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>29.06808807246761</v>
+        <v>35.48002679742768</v>
       </c>
       <c r="D60" t="n">
-        <v>22.81641104565804</v>
+        <v>20.29770769798404</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.13359722517665</v>
+        <v>30.47864108178416</v>
       </c>
       <c r="D61" t="n">
-        <v>22.89815561600033</v>
+        <v>23.19715832000352</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.72695873754594</v>
+        <v>26.70386365810029</v>
       </c>
       <c r="D62" t="n">
-        <v>24.04459107772089</v>
+        <v>23.23023758366342</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.2338540157797</v>
+        <v>27.08234762008773</v>
       </c>
       <c r="D63" t="n">
-        <v>20.427998255723</v>
+        <v>21.44126343207148</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.36919047958331</v>
+        <v>25.7055602503048</v>
       </c>
       <c r="D64" t="n">
-        <v>22.22600292730968</v>
+        <v>23.17317671349153</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>24.68475174527178</v>
+        <v>23.6635984025007</v>
       </c>
       <c r="D65" t="n">
-        <v>20.05045692379164</v>
+        <v>23.36841138448115</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>23.90004551258977</v>
+        <v>23.67864551067435</v>
       </c>
       <c r="D66" t="n">
-        <v>23.59125983246982</v>
+        <v>21.75537758215096</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>28.28698134614704</v>
+        <v>22.28408615110072</v>
       </c>
       <c r="D67" t="n">
-        <v>23.97873299053226</v>
+        <v>21.14568241184376</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.43252552700542</v>
+        <v>22.46651137647138</v>
       </c>
       <c r="D68" t="n">
-        <v>22.6921312422671</v>
+        <v>20.0864765446405</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>19.98826760614834</v>
+        <v>22.39182250834659</v>
       </c>
       <c r="D69" t="n">
-        <v>22.8042178500376</v>
+        <v>22.296627179471</v>
       </c>
     </row>
   </sheetData>
